--- a/X-Project tools/Excel/Java Source generators.xlsx
+++ b/X-Project tools/Excel/Java Source generators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General POJO" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="237">
   <si>
     <t>TRIM()</t>
   </si>
@@ -51,45 +51,6 @@
   </si>
   <si>
     <t>Eclipse Field declarations</t>
-  </si>
-  <si>
-    <t>codadrkey : long</t>
-  </si>
-  <si>
-    <t>codorgkey : long</t>
-  </si>
-  <si>
-    <t>codpostype : String</t>
-  </si>
-  <si>
-    <t>deliposuf : String</t>
-  </si>
-  <si>
-    <t>codpostal : String</t>
-  </si>
-  <si>
-    <t>orgganame : String</t>
-  </si>
-  <si>
-    <t>ad2Departm : String</t>
-  </si>
-  <si>
-    <t>ad3Bulding : String</t>
-  </si>
-  <si>
-    <t>sbuildname : String</t>
-  </si>
-  <si>
-    <t>numbuildin : short</t>
-  </si>
-  <si>
-    <t>thoroname : String</t>
-  </si>
-  <si>
-    <t>ad6Twnlndi : String</t>
-  </si>
-  <si>
-    <t>ad7Postown : String</t>
   </si>
   <si>
     <t>private</t>
@@ -403,9 +364,6 @@
     <t>Var name:</t>
   </si>
   <si>
-    <t>beAddress</t>
-  </si>
-  <si>
     <t>Eg7028AddressModel</t>
   </si>
   <si>
@@ -707,6 +665,81 @@
   </si>
   <si>
     <t>private List&lt;Dependency&gt; dependencies;</t>
+  </si>
+  <si>
+    <t>customerId : Long</t>
+  </si>
+  <si>
+    <t>title : TitleModel</t>
+  </si>
+  <si>
+    <t>forename1 : String</t>
+  </si>
+  <si>
+    <t>forename2 : String</t>
+  </si>
+  <si>
+    <t>forename3 : String</t>
+  </si>
+  <si>
+    <t>surname : String</t>
+  </si>
+  <si>
+    <t>suffix : SuffixModel</t>
+  </si>
+  <si>
+    <t>generation : GenerationModel</t>
+  </si>
+  <si>
+    <t>aKAname : String</t>
+  </si>
+  <si>
+    <t>genderType : String</t>
+  </si>
+  <si>
+    <t>previousTitle : TitleModel</t>
+  </si>
+  <si>
+    <t>previousForename : String</t>
+  </si>
+  <si>
+    <t>previousSurname : String</t>
+  </si>
+  <si>
+    <t>maritalStatus : MaritalStatusModel</t>
+  </si>
+  <si>
+    <t>dateOfBirth : String</t>
+  </si>
+  <si>
+    <t>nationality : List&lt;NationalityModel&gt;</t>
+  </si>
+  <si>
+    <t>placeOfBirth : String</t>
+  </si>
+  <si>
+    <t>countryOfBirth : CountryModel</t>
+  </si>
+  <si>
+    <t>dateOfDecease : String</t>
+  </si>
+  <si>
+    <t>firstAdvise : String</t>
+  </si>
+  <si>
+    <t>dateOfDocumentation : String</t>
+  </si>
+  <si>
+    <t>indicators : String</t>
+  </si>
+  <si>
+    <t>safeCustody : String</t>
+  </si>
+  <si>
+    <t>vulnerable : String</t>
+  </si>
+  <si>
+    <t>customerDetailsModel</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>2</v>
@@ -1261,13 +1294,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>C2&amp;" "&amp;D2&amp;" "&amp;E2&amp;";"</f>
@@ -1312,13 +1345,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F3" s="10" t="str">
         <f t="shared" ref="F3:F14" si="1">C3&amp;" "&amp;D3&amp;" "&amp;E3&amp;";"</f>
@@ -1363,13 +1396,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F4" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1414,13 +1447,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F5" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1465,13 +1498,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1516,13 +1549,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1567,13 +1600,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1618,13 +1651,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F9" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1669,13 +1702,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1720,13 +1753,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F11" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1771,13 +1804,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F12" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1822,13 +1855,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F13" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1873,13 +1906,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F14" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1965,7 +1998,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -1994,7 +2027,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D2" s="10" t="str">
         <f>TRIM(C2)</f>
@@ -2405,16 +2438,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -2427,10 +2460,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -2451,371 +2484,679 @@
         <v>1</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>TRIM(C2)</f>
-        <v>codadrkey : long</v>
+        <v>customerId : Long</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>LEFT(D2,FIND(" : ",D2)-1)</f>
-        <v>codadrkey</v>
+        <v>customerId</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>TRIM(RIGHT(D2,LEN(D2)-LEN(" : ")-LEN(E2)+1))</f>
-        <v>long</v>
+        <v>Long</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H2" s="6" t="str">
         <f>G2&amp;" "&amp;F2&amp;" "&amp;E2&amp;";"</f>
-        <v>private long codadrkey;</v>
+        <v>private Long customerId;</v>
       </c>
       <c r="I2" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E2,1))&amp;RIGHT(E2,LEN(E2)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F2,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setCodadrkey(0);</v>
+        <v>customerDetailsModel.setCustomerId(0);</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="D3" s="6" t="str">
         <f t="shared" ref="D3:D14" si="0">TRIM(C3)</f>
-        <v>codorgkey : long</v>
+        <v>title : TitleModel</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E14" si="1">LEFT(D3,FIND(" : ",D3)-1)</f>
-        <v>codorgkey</v>
+        <v>title</v>
       </c>
       <c r="F3" s="6" t="str">
         <f t="shared" ref="F3:F14" si="2">TRIM(RIGHT(D3,LEN(D3)-LEN(" : ")-LEN(E3)+1))</f>
-        <v>long</v>
+        <v>TitleModel</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H3" s="6" t="str">
         <f t="shared" ref="H3:H14" si="3">G3&amp;" "&amp;F3&amp;" "&amp;E3&amp;";"</f>
-        <v>private long codorgkey;</v>
+        <v>private TitleModel title;</v>
       </c>
       <c r="I3" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E3,1))&amp;RIGHT(E3,LEN(E3)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F3,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setCodorgkey(0);</v>
+        <v>customerDetailsModel.setTitle("");</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>codpostype : String</v>
+        <v>forename1 : String</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>codpostype</v>
+        <v>forename1</v>
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>String</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String codpostype;</v>
+        <v>private String forename1;</v>
       </c>
       <c r="I4" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E4,1))&amp;RIGHT(E4,LEN(E4)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F4,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setCodpostype("");</v>
+        <v>customerDetailsModel.setForename1("");</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>deliposuf : String</v>
+        <v>forename2 : String</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>deliposuf</v>
+        <v>forename2</v>
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="2"/>
         <v>String</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String deliposuf;</v>
+        <v>private String forename2;</v>
       </c>
       <c r="I5" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E5,1))&amp;RIGHT(E5,LEN(E5)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F5,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setDeliposuf("");</v>
+        <v>customerDetailsModel.setForename2("");</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>codpostal : String</v>
+        <v>forename3 : String</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>codpostal</v>
+        <v>forename3</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>String</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String codpostal;</v>
+        <v>private String forename3;</v>
       </c>
       <c r="I6" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E6,1))&amp;RIGHT(E6,LEN(E6)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F6,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setCodpostal("");</v>
+        <v>customerDetailsModel.setForename3("");</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>orgganame : String</v>
+        <v>surname : String</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>orgganame</v>
+        <v>surname</v>
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="2"/>
         <v>String</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String orgganame;</v>
+        <v>private String surname;</v>
       </c>
       <c r="I7" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E7,1))&amp;RIGHT(E7,LEN(E7)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F7,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setOrgganame("");</v>
+        <v>customerDetailsModel.setSurname("");</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>ad2Departm : String</v>
+        <v>suffix : SuffixModel</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ad2Departm</v>
+        <v>suffix</v>
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>String</v>
+        <v>SuffixModel</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String ad2Departm;</v>
+        <v>private SuffixModel suffix;</v>
       </c>
       <c r="I8" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E8,1))&amp;RIGHT(E8,LEN(E8)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F8,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setAd2Departm("");</v>
+        <v>customerDetailsModel.setSuffix("");</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>ad3Bulding : String</v>
+        <v>generation : GenerationModel</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ad3Bulding</v>
+        <v>generation</v>
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>String</v>
+        <v>GenerationModel</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String ad3Bulding;</v>
+        <v>private GenerationModel generation;</v>
       </c>
       <c r="I9" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E9,1))&amp;RIGHT(E9,LEN(E9)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F9,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setAd3Bulding("");</v>
+        <v>customerDetailsModel.setGeneration("");</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>sbuildname : String</v>
+        <v>aKAname : String</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>sbuildname</v>
+        <v>aKAname</v>
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="2"/>
         <v>String</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String sbuildname;</v>
+        <v>private String aKAname;</v>
       </c>
       <c r="I10" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E10,1))&amp;RIGHT(E10,LEN(E10)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F10,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setSbuildname("");</v>
+        <v>customerDetailsModel.setAKAname("");</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>numbuildin : short</v>
+        <v>genderType : String</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>numbuildin</v>
+        <v>genderType</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>short</v>
+        <v>String</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private short numbuildin;</v>
+        <v>private String genderType;</v>
       </c>
       <c r="I11" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E11,1))&amp;RIGHT(E11,LEN(E11)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F11,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setNumbuildin(0);</v>
+        <v>customerDetailsModel.setGenderType("");</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>thoroname : String</v>
+        <v>previousTitle : TitleModel</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>thoroname</v>
+        <v>previousTitle</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>String</v>
+        <v>TitleModel</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String thoroname;</v>
+        <v>private TitleModel previousTitle;</v>
       </c>
       <c r="I12" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E12,1))&amp;RIGHT(E12,LEN(E12)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F12,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setThoroname("");</v>
+        <v>customerDetailsModel.setPreviousTitle("");</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>ad6Twnlndi : String</v>
+        <v>previousForename : String</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ad6Twnlndi</v>
+        <v>previousForename</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="2"/>
         <v>String</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String ad6Twnlndi;</v>
+        <v>private String previousForename;</v>
       </c>
       <c r="I13" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E13,1))&amp;RIGHT(E13,LEN(E13)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F13,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setAd6Twnlndi("");</v>
+        <v>customerDetailsModel.setPreviousForename("");</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>ad7Postown : String</v>
+        <v>previousSurname : String</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ad7Postown</v>
+        <v>previousSurname</v>
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="2"/>
         <v>String</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>private String ad7Postown;</v>
+        <v>private String previousSurname;</v>
       </c>
       <c r="I14" s="6" t="str">
         <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E14,1))&amp;RIGHT(E14,LEN(E14)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F14,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
-        <v>beAddress.setAd7Postown("");</v>
+        <v>customerDetailsModel.setPreviousSurname("");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f t="shared" ref="D15:D23" si="4">TRIM(C15)</f>
+        <v>maritalStatus : MaritalStatusModel</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" ref="E15:E23" si="5">LEFT(D15,FIND(" : ",D15)-1)</f>
+        <v>maritalStatus</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f t="shared" ref="F15:F23" si="6">TRIM(RIGHT(D15,LEN(D15)-LEN(" : ")-LEN(E15)+1))</f>
+        <v>MaritalStatusModel</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f t="shared" ref="H15:H23" si="7">G15&amp;" "&amp;F15&amp;" "&amp;E15&amp;";"</f>
+        <v>private MaritalStatusModel maritalStatus;</v>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E15,1))&amp;RIGHT(E15,LEN(E15)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F15,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setMaritalStatus("");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>dateOfBirth : String</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>dateOfBirth</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>String</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>private String dateOfBirth;</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E16,1))&amp;RIGHT(E16,LEN(E16)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F16,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setDateOfBirth("");</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>nationality : List&lt;NationalityModel&gt;</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>nationality</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>List&lt;NationalityModel&gt;</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>private List&lt;NationalityModel&gt; nationality;</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E17,1))&amp;RIGHT(E17,LEN(E17)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F17,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setNationality("");</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>placeOfBirth : String</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>placeOfBirth</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>String</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>private String placeOfBirth;</v>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E18,1))&amp;RIGHT(E18,LEN(E18)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F18,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setPlaceOfBirth("");</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>countryOfBirth : CountryModel</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>countryOfBirth</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>CountryModel</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>private CountryModel countryOfBirth;</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E19,1))&amp;RIGHT(E19,LEN(E19)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F19,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setCountryOfBirth("");</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>dateOfDecease : String</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>dateOfDecease</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>String</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>private String dateOfDecease;</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E20,1))&amp;RIGHT(E20,LEN(E20)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F20,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setDateOfDecease("");</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>firstAdvise : String</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>firstAdvise</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>String</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>private String firstAdvise;</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E21,1))&amp;RIGHT(E21,LEN(E21)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F21,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setFirstAdvise("");</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>dateOfDocumentation : String</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>dateOfDocumentation</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>String</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>private String dateOfDocumentation;</v>
+      </c>
+      <c r="I22" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E22,1))&amp;RIGHT(E22,LEN(E22)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F22,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setDateOfDocumentation("");</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>indicators : String</v>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>indicators</v>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>String</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>private String indicators;</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E23,1))&amp;RIGHT(E23,LEN(E23)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F23,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setIndicators("");</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f t="shared" ref="D24:D25" si="8">TRIM(C24)</f>
+        <v>safeCustody : String</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" ref="E24:E25" si="9">LEFT(D24,FIND(" : ",D24)-1)</f>
+        <v>safeCustody</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f t="shared" ref="F24:F25" si="10">TRIM(RIGHT(D24,LEN(D24)-LEN(" : ")-LEN(E24)+1))</f>
+        <v>String</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f t="shared" ref="H24:H25" si="11">G24&amp;" "&amp;F24&amp;" "&amp;E24&amp;";"</f>
+        <v>private String safeCustody;</v>
+      </c>
+      <c r="I24" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E24,1))&amp;RIGHT(E24,LEN(E24)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F24,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setSafeCustody("");</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>vulnerable : String</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>vulnerable</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>String</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>private String vulnerable;</v>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f ca="1">IF($B$1&lt;&gt;"",$B$1&amp;".","")&amp;"set"&amp;UPPER(LEFT(E25,1))&amp;RIGHT(E25,LEN(E25)-1)&amp;"("&amp;IF(NOT(ISNA(MATCH(F25,INDIRECT(Params!$A$1),0))),0,"""""")&amp;");"</f>
+        <v>customerDetailsModel.setVulnerable("");</v>
       </c>
     </row>
   </sheetData>
@@ -2863,18 +3204,18 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>A2</f>
@@ -2883,10 +3224,10 @@
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="str">
         <f>C$2&amp;"."&amp;A3</f>
@@ -2895,10 +3236,10 @@
     </row>
     <row r="4" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>C$3&amp;"."&amp;A4</f>
@@ -2907,10 +3248,10 @@
     </row>
     <row r="5" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>C$4&amp;"[i]."&amp;A5</f>
@@ -2919,10 +3260,10 @@
     </row>
     <row r="6" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>C$4&amp;"[i]."&amp;A6</f>
@@ -2931,10 +3272,10 @@
     </row>
     <row r="7" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>C$3&amp;"."&amp;A7</f>
@@ -2943,10 +3284,10 @@
     </row>
     <row r="8" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>C$7&amp;"[i]."&amp;A8</f>
@@ -2955,10 +3296,10 @@
     </row>
     <row r="9" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>C$7&amp;"[i]."&amp;A9</f>
@@ -2967,10 +3308,10 @@
     </row>
     <row r="10" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>C$2&amp;"."&amp;A10</f>
@@ -2979,10 +3320,10 @@
     </row>
     <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>C$10&amp;"."&amp;A11</f>
@@ -2991,40 +3332,40 @@
     </row>
     <row r="12" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>C$11&amp;"."&amp;A12</f>
         <v>responseParent.storedData.header.loanProductCode</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" ref="C13:C14" si="0">C$11&amp;"."&amp;A13</f>
         <v>responseParent.storedData.header.loanNumber</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3033,10 +3374,10 @@
     </row>
     <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>C$10&amp;"."&amp;A15</f>
@@ -3045,10 +3386,10 @@
     </row>
     <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>C$15&amp;"."&amp;A16</f>
@@ -3057,10 +3398,10 @@
     </row>
     <row r="17" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" ref="C17:C23" si="1">C$15&amp;"."&amp;A17</f>
@@ -3069,10 +3410,10 @@
     </row>
     <row r="18" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3081,10 +3422,10 @@
     </row>
     <row r="19" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3093,10 +3434,10 @@
     </row>
     <row r="20" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3105,10 +3446,10 @@
     </row>
     <row r="21" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3117,10 +3458,10 @@
     </row>
     <row r="22" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3129,10 +3470,10 @@
     </row>
     <row r="23" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3141,10 +3482,10 @@
     </row>
     <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>C$10&amp;"."&amp;A24</f>
@@ -3153,10 +3494,10 @@
     </row>
     <row r="25" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>C$24&amp;"."&amp;A25</f>
@@ -3165,10 +3506,10 @@
     </row>
     <row r="26" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" ref="C26:C37" si="2">C$24&amp;"."&amp;A26</f>
@@ -3177,10 +3518,10 @@
     </row>
     <row r="27" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3189,10 +3530,10 @@
     </row>
     <row r="28" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3201,10 +3542,10 @@
     </row>
     <row r="29" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3213,10 +3554,10 @@
     </row>
     <row r="30" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3225,10 +3566,10 @@
     </row>
     <row r="31" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3237,10 +3578,10 @@
     </row>
     <row r="32" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3249,10 +3590,10 @@
     </row>
     <row r="33" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3261,10 +3602,10 @@
     </row>
     <row r="34" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3273,10 +3614,10 @@
     </row>
     <row r="35" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3285,10 +3626,10 @@
     </row>
     <row r="36" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3297,10 +3638,10 @@
     </row>
     <row r="37" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3309,10 +3650,10 @@
     </row>
     <row r="38" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C38" s="3" t="str">
         <f>C$10&amp;"."&amp;A38</f>
@@ -3321,10 +3662,10 @@
     </row>
     <row r="39" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C39" s="3" t="str">
         <f>C$38&amp;"."&amp;A39</f>
@@ -3333,10 +3674,10 @@
     </row>
     <row r="40" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" ref="C40:C45" si="3">C$38&amp;"."&amp;A40</f>
@@ -3345,10 +3686,10 @@
     </row>
     <row r="41" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3357,10 +3698,10 @@
     </row>
     <row r="42" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3369,10 +3710,10 @@
     </row>
     <row r="43" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3381,10 +3722,10 @@
     </row>
     <row r="44" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3393,10 +3734,10 @@
     </row>
     <row r="45" spans="1:3" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3431,36 +3772,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>IF(D2="N/A","String",IF(LEFT(D2,6)="Number",IF(IFERROR(VALUE(MID(D2,FIND("(",D2)+1,FIND(")",D2)-(FIND("(",D2)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D2,FIND("(",D2)+1,FIND(")",D2)-(FIND("(",D2)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D2,FIND("(",D2)+1,FIND(")",D2)-(FIND("(",D2)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D2="Decimal","double",LEFT(D2,6))))</f>
@@ -3481,10 +3822,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IF(D3="N/A","String",IF(LEFT(D3,6)="Number",IF(IFERROR(VALUE(MID(D3,FIND("(",D3)+1,FIND(")",D3)-(FIND("(",D3)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D3,FIND("(",D3)+1,FIND(")",D3)-(FIND("(",D3)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D3,FIND("(",D3)+1,FIND(")",D3)-(FIND("(",D3)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D3="Decimal","double",LEFT(D3,6))))</f>
@@ -3505,10 +3846,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>223</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IF(D4="N/A","String",IF(LEFT(D4,6)="Number",IF(IFERROR(VALUE(MID(D4,FIND("(",D4)+1,FIND(")",D4)-(FIND("(",D4)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D4,FIND("(",D4)+1,FIND(")",D4)-(FIND("(",D4)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D4,FIND("(",D4)+1,FIND(")",D4)-(FIND("(",D4)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D4="Decimal","double",LEFT(D4,6))))</f>
@@ -3529,10 +3870,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IF(D5="N/A","String",IF(LEFT(D5,6)="Number",IF(IFERROR(VALUE(MID(D5,FIND("(",D5)+1,FIND(")",D5)-(FIND("(",D5)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D5,FIND("(",D5)+1,FIND(")",D5)-(FIND("(",D5)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D5,FIND("(",D5)+1,FIND(")",D5)-(FIND("(",D5)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D5="Decimal","double",LEFT(D5,6))))</f>
@@ -3553,10 +3894,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>IF(D6="N/A","String",IF(LEFT(D6,6)="Number",IF(IFERROR(VALUE(MID(D6,FIND("(",D6)+1,FIND(")",D6)-(FIND("(",D6)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D6,FIND("(",D6)+1,FIND(")",D6)-(FIND("(",D6)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D6,FIND("(",D6)+1,FIND(")",D6)-(FIND("(",D6)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D6="Decimal","double",LEFT(D6,6))))</f>
@@ -3577,10 +3918,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>IF(D7="N/A","String",IF(LEFT(D7,6)="Number",IF(IFERROR(VALUE(MID(D7,FIND("(",D7)+1,FIND(")",D7)-(FIND("(",D7)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D7,FIND("(",D7)+1,FIND(")",D7)-(FIND("(",D7)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D7,FIND("(",D7)+1,FIND(")",D7)-(FIND("(",D7)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D7="Decimal","double",LEFT(D7,6))))</f>
@@ -3601,10 +3942,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>IF(D8="N/A","String",IF(LEFT(D8,6)="Number",IF(IFERROR(VALUE(MID(D8,FIND("(",D8)+1,FIND(")",D8)-(FIND("(",D8)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D8,FIND("(",D8)+1,FIND(")",D8)-(FIND("(",D8)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D8,FIND("(",D8)+1,FIND(")",D8)-(FIND("(",D8)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D8="Decimal","double",LEFT(D8,6))))</f>
@@ -3625,10 +3966,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF(D9="N/A","String",IF(LEFT(D9,6)="Number",IF(IFERROR(VALUE(MID(D9,FIND("(",D9)+1,FIND(")",D9)-(FIND("(",D9)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D9,FIND("(",D9)+1,FIND(")",D9)-(FIND("(",D9)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D9,FIND("(",D9)+1,FIND(")",D9)-(FIND("(",D9)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D9="Decimal","double",LEFT(D9,6))))</f>
@@ -3649,10 +3990,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>IF(D10="N/A","String",IF(LEFT(D10,6)="Number",IF(IFERROR(VALUE(MID(D10,FIND("(",D10)+1,FIND(")",D10)-(FIND("(",D10)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D10,FIND("(",D10)+1,FIND(")",D10)-(FIND("(",D10)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D10,FIND("(",D10)+1,FIND(")",D10)-(FIND("(",D10)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D10="Decimal","double",LEFT(D10,6))))</f>
@@ -3673,10 +4014,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>IF(D11="N/A","String",IF(LEFT(D11,6)="Number",IF(IFERROR(VALUE(MID(D11,FIND("(",D11)+1,FIND(")",D11)-(FIND("(",D11)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D11,FIND("(",D11)+1,FIND(")",D11)-(FIND("(",D11)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D11,FIND("(",D11)+1,FIND(")",D11)-(FIND("(",D11)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D11="Decimal","double",LEFT(D11,6))))</f>
@@ -3697,10 +4038,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>IF(D12="N/A","String",IF(LEFT(D12,6)="Number",IF(IFERROR(VALUE(MID(D12,FIND("(",D12)+1,FIND(")",D12)-(FIND("(",D12)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D12,FIND("(",D12)+1,FIND(")",D12)-(FIND("(",D12)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D12,FIND("(",D12)+1,FIND(")",D12)-(FIND("(",D12)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D12="Decimal","double",LEFT(D12,6))))</f>
@@ -3721,10 +4062,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>IF(D13="N/A","String",IF(LEFT(D13,6)="Number",IF(IFERROR(VALUE(MID(D13,FIND("(",D13)+1,FIND(")",D13)-(FIND("(",D13)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D13,FIND("(",D13)+1,FIND(")",D13)-(FIND("(",D13)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D13,FIND("(",D13)+1,FIND(")",D13)-(FIND("(",D13)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D13="Decimal","double",LEFT(D13,6))))</f>
@@ -3745,10 +4086,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E14" s="6" t="str">
         <f>IF(D14="N/A","String",IF(LEFT(D14,6)="Number",IF(IFERROR(VALUE(MID(D14,FIND("(",D14)+1,FIND(")",D14)-(FIND("(",D14)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D14,FIND("(",D14)+1,FIND(")",D14)-(FIND("(",D14)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D14,FIND("(",D14)+1,FIND(")",D14)-(FIND("(",D14)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D14="Decimal","double",LEFT(D14,6))))</f>
@@ -3769,10 +4110,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>IF(D15="N/A","String",IF(LEFT(D15,6)="Number",IF(IFERROR(VALUE(MID(D15,FIND("(",D15)+1,FIND(")",D15)-(FIND("(",D15)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D15,FIND("(",D15)+1,FIND(")",D15)-(FIND("(",D15)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D15,FIND("(",D15)+1,FIND(")",D15)-(FIND("(",D15)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D15="Decimal","double",LEFT(D15,6))))</f>
@@ -3793,10 +4134,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>IF(D16="N/A","String",IF(LEFT(D16,6)="Number",IF(IFERROR(VALUE(MID(D16,FIND("(",D16)+1,FIND(")",D16)-(FIND("(",D16)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D16,FIND("(",D16)+1,FIND(")",D16)-(FIND("(",D16)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D16,FIND("(",D16)+1,FIND(")",D16)-(FIND("(",D16)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D16="Decimal","double",LEFT(D16,6))))</f>
@@ -3817,10 +4158,10 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>IF(D17="N/A","String",IF(LEFT(D17,6)="Number",IF(IFERROR(VALUE(MID(D17,FIND("(",D17)+1,FIND(")",D17)-(FIND("(",D17)+1))),1)&gt;LEN(Params!$B$5),Params!$A$6,IF(IFERROR(VALUE(MID(D17,FIND("(",D17)+1,FIND(")",D17)-(FIND("(",D17)+1))),1)&gt;LEN(Params!$B$4),Params!$A$5,IF(IFERROR(VALUE(MID(D17,FIND("(",D17)+1,FIND(")",D17)-(FIND("(",D17)+1))),1)&gt;LEN(Params!$B$3),Params!$A$4,Params!$A$3))),IF(D17="Decimal","double",LEFT(D17,6))))</f>
@@ -4029,7 +4370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -4046,13 +4387,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -4066,7 +4407,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="str">
         <f>TRIM(A2)</f>
@@ -4091,7 +4432,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="str">
         <f t="shared" ref="B3:B64" si="2">TRIM(A3)</f>
@@ -4116,7 +4457,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4141,7 +4482,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4166,7 +4507,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4191,7 +4532,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4216,7 +4557,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4241,7 +4582,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4266,7 +4607,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4291,7 +4632,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4316,7 +4657,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4341,7 +4682,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4366,7 +4707,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4391,7 +4732,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4412,7 +4753,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4433,7 +4774,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4454,7 +4795,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4475,7 +4816,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4496,7 +4837,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4517,7 +4858,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4538,7 +4879,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4559,7 +4900,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4580,7 +4921,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4601,7 +4942,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B25" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4622,7 +4963,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B26" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4643,7 +4984,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B27" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4664,7 +5005,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B28" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4685,7 +5026,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B29" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4706,7 +5047,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B30" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4727,7 +5068,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B31" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4748,7 +5089,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B32" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4769,7 +5110,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B33" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4790,7 +5131,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B34" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4811,7 +5152,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B35" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4832,7 +5173,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B36" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4853,7 +5194,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B37" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4874,7 +5215,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B38" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4895,7 +5236,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B39" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4916,7 +5257,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B40" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4937,7 +5278,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B41" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4958,7 +5299,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B42" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4979,7 +5320,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B43" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5000,7 +5341,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B44" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5021,7 +5362,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B45" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5042,7 +5383,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B46" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5063,7 +5404,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B47" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5084,7 +5425,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B48" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5105,7 +5446,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B49" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5126,7 +5467,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B50" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5147,7 +5488,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B51" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5168,7 +5509,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B52" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5189,7 +5530,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B53" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5210,7 +5551,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B54" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5231,7 +5572,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B55" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5252,7 +5593,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B56" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5273,7 +5614,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B57" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5294,7 +5635,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B58" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5315,7 +5656,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B59" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5336,7 +5677,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B60" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5357,7 +5698,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B61" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5378,7 +5719,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B62" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5399,7 +5740,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B63" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5420,7 +5761,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B64" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5474,47 +5815,47 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>1</v>
@@ -5525,7 +5866,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11" t="str">
         <f>TRIM(B2)</f>
@@ -5554,7 +5895,7 @@
         <v>Eg7028i</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L2" s="6" t="str">
         <f>SUBSTITUTE(LOWER(E2),"-","")</f>
@@ -5566,7 +5907,7 @@
         <v>&lt;complexType name="Eg7028I"&gt;&lt;sequence&gt;</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ref="P2:P10" si="1">F2&amp;" "&amp;E2&amp;" "&amp;D2&amp;";"</f>
@@ -5579,7 +5920,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C3" s="11" t="str">
         <f t="shared" ref="C3:C10" si="2">TRIM(B3)</f>
@@ -5608,14 +5949,14 @@
         <v>Eg8529pi</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L3" s="6" t="str">
         <f t="shared" ref="L3:L10" si="6">SUBSTITUTE(LOWER(E3),"-","")</f>
         <v>eg8529pi</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="N3" s="15" t="str">
         <f>"&lt;element name="""&amp;IF(M3="",L3,M3)&amp;" type=""tns:"&amp;IF(K3="",J3,K3)&amp;"""&gt;&lt;annotation&gt;&lt;appinfo&gt;
@@ -5624,7 +5965,7 @@
 &lt;cb:cobolElement cobolName="EG8529P-I" levelNumber="5" srceLine="31" type="GROUP_ITEM"/&gt;&lt;/appinfo&gt;&lt;/annotation&gt;&lt;/element&gt;&lt;/sequence&gt;&lt;/complexType&gt;</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="P3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5637,7 +5978,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C4" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5679,7 +6020,7 @@
         <v>&lt;element name="option"&gt;&lt;annotation&gt;&lt;appinfo&gt;&lt;cb:cobolElement cobolName="OPTION" levelNumber="7" picture="X" srceLine="32" type="ALPHANUMERIC_ITEM"/&gt;&lt;/appinfo&gt;&lt;/annotation&gt;&lt;simpleType&gt;&lt;restriction base="string"&gt;&lt;maxLength value="1"/&gt;&lt;/restriction&gt;&lt;/simpleType&gt;&lt;/element&gt;</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5692,7 +6033,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C5" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5734,7 +6075,7 @@
         <v>&lt;element name="codpostal"&gt;&lt;annotation&gt;&lt;appinfo&gt;&lt;cb:cobolElement cobolName="CODPOSTAL" levelNumber="7" picture="X(8)" srceLine="33" type="ALPHANUMERIC_ITEM"/&gt;&lt;/appinfo&gt;&lt;/annotation&gt;&lt;simpleType&gt;&lt;restriction base="string"&gt;&lt;maxLength value="8"/&gt;&lt;/restriction&gt;&lt;/simpleType&gt;&lt;/element&gt;</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="P5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5747,7 +6088,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C6" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5789,7 +6130,7 @@
         <v>&lt;element name="thoroname"&gt;&lt;annotation&gt;&lt;appinfo&gt;&lt;cb:cobolElement cobolName="THORONAME" levelNumber="7" picture="X(60)" srceLine="34" type="ALPHANUMERIC_ITEM"/&gt;&lt;/appinfo&gt;&lt;/annotation&gt;&lt;simpleType&gt;&lt;restriction base="string"&gt;&lt;maxLength value="60"/&gt;&lt;/restriction&gt;&lt;/simpleType&gt;&lt;/element&gt;</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5802,7 +6143,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C7" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5847,7 +6188,7 @@
         <v>&lt;element name="numbuildin"&gt;&lt;annotation&gt;&lt;appinfo&gt;&lt;cb:cobolElement cobolName="NUMBUILDIN" levelNumber="7" picture="S9(4) COMP" srceLine="35" type="¿?"/&gt;&lt;/appinfo&gt;&lt;/annotation&gt;&lt;simpleType&gt;&lt;restriction base="string"&gt;&lt;maxLength value="4"/&gt;&lt;/restriction&gt;&lt;/simpleType&gt;&lt;/element&gt;</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5860,7 +6201,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C8" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5916,7 +6257,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C9" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5968,7 +6309,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C10" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6053,18 +6394,18 @@
     </row>
     <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>128</v>
@@ -6075,7 +6416,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <f>(2^16)/2</f>
@@ -6088,7 +6429,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <f>(2^32)/2</f>
@@ -6101,7 +6442,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <f>(2^64)/2</f>
